--- a/Dx_2009_Sahay_and_Dutta_Paper02_Chattahoochee.xlsx
+++ b/Dx_2009_Sahay_and_Dutta_Paper02_Chattahoochee.xlsx
@@ -5444,7 +5444,7 @@
   <dimension ref="A1:X91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5692,7 +5692,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="45">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -5722,7 +5722,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="66">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -8099,11 +8099,11 @@
       </c>
       <c r="AB2" s="77">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>3477</v>
+        <v>173</v>
       </c>
       <c r="AC2" s="77">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>266.66666666666669</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="AD2" s="77">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="AE2" s="75">
         <f t="shared" ref="AE2:AE3" si="0">Delta_T__seconds</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="AF2" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -8131,7 +8131,7 @@
       </c>
       <c r="AJ2" s="75">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>10225.799999999999</v>
+        <v>51128.999999999993</v>
       </c>
       <c r="AK2" s="75">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -8149,7 +8149,7 @@
       </c>
       <c r="AO2" s="79">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>266</v>
+        <v>53</v>
       </c>
       <c r="AP2" s="79">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -8238,19 +8238,19 @@
       </c>
       <c r="AB3" s="77">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>5817</v>
+        <v>290</v>
       </c>
       <c r="AC3" s="77">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>465</v>
+        <v>93</v>
       </c>
       <c r="AD3" s="77">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>266.66666666666669</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="AE3" s="75">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="AF3" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -8270,7 +8270,7 @@
       </c>
       <c r="AJ3" s="75">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>11449.199999999999</v>
+        <v>57246</v>
       </c>
       <c r="AK3" s="75">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -8288,7 +8288,7 @@
       </c>
       <c r="AO3" s="79">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>465</v>
+        <v>93</v>
       </c>
       <c r="AP3" s="79">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -8377,19 +8377,19 @@
       </c>
       <c r="AB4" s="83">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>7437</v>
+        <v>371</v>
       </c>
       <c r="AC4" s="83">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>608.33333333333337</v>
+        <v>121.66666666666667</v>
       </c>
       <c r="AD4" s="83">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>465</v>
+        <v>93</v>
       </c>
       <c r="AE4" s="75">
         <f>Delta_T__seconds</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="AF4" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="AJ4" s="82">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>10225.799999999999</v>
+        <v>51128.999999999993</v>
       </c>
       <c r="AK4" s="82">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -8423,7 +8423,7 @@
       <c r="AN4" s="75"/>
       <c r="AO4" s="79">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>608</v>
+        <v>121</v>
       </c>
       <c r="AP4" s="79">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -8512,19 +8512,19 @@
       </c>
       <c r="AB5" s="83">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>10656</v>
+        <v>532</v>
       </c>
       <c r="AC5" s="83">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>826.66666666666663</v>
+        <v>165.33333333333334</v>
       </c>
       <c r="AD5" s="83">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>608.33333333333337</v>
+        <v>121.66666666666667</v>
       </c>
       <c r="AE5" s="75">
         <f>Delta_T__seconds</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="AF5" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -8544,7 +8544,7 @@
       </c>
       <c r="AJ5" s="82">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>10722.599999999999</v>
+        <v>53612.999999999993</v>
       </c>
       <c r="AK5" s="82">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -8558,7 +8558,7 @@
       <c r="AN5" s="75"/>
       <c r="AO5" s="79">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>826</v>
+        <v>165</v>
       </c>
       <c r="AP5" s="79">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -8647,19 +8647,19 @@
       </c>
       <c r="AB6" s="83">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>14277</v>
+        <v>713</v>
       </c>
       <c r="AC6" s="83">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>951.66666666666663</v>
+        <v>190.33333333333334</v>
       </c>
       <c r="AD6" s="83">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>826.66666666666663</v>
+        <v>165.33333333333334</v>
       </c>
       <c r="AE6" s="75">
         <f>Delta_T__seconds</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="AF6" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -8679,7 +8679,7 @@
       </c>
       <c r="AJ6" s="82">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>12196.8</v>
+        <v>60984</v>
       </c>
       <c r="AK6" s="82">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -8693,7 +8693,7 @@
       <c r="AN6" s="75"/>
       <c r="AO6" s="79">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>951</v>
+        <v>190</v>
       </c>
       <c r="AP6" s="79">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -8782,19 +8782,19 @@
       </c>
       <c r="AB7" s="83">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>15480</v>
+        <v>774</v>
       </c>
       <c r="AC7" s="83">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>1008.3333333333334</v>
+        <v>201.66666666666666</v>
       </c>
       <c r="AD7" s="83">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>951.66666666666663</v>
+        <v>190.33333333333334</v>
       </c>
       <c r="AE7" s="75">
         <f>Delta_T__seconds</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="AF7" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -8814,7 +8814,7 @@
       </c>
       <c r="AJ7" s="82">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>12196.8</v>
+        <v>60984</v>
       </c>
       <c r="AK7" s="82">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -8828,7 +8828,7 @@
       <c r="AN7" s="75"/>
       <c r="AO7" s="79">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>1008</v>
+        <v>201</v>
       </c>
       <c r="AP7" s="79">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -8917,19 +8917,19 @@
       </c>
       <c r="AB8" s="83">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>20750</v>
+        <v>1037</v>
       </c>
       <c r="AC8" s="83">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>1276.6666666666667</v>
+        <v>255.33333333333334</v>
       </c>
       <c r="AD8" s="83">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>1008.3333333333334</v>
+        <v>201.66666666666666</v>
       </c>
       <c r="AE8" s="75">
         <f>Delta_T__seconds</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="AF8" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -8949,7 +8949,7 @@
       </c>
       <c r="AJ8" s="82">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>9072</v>
+        <v>45360</v>
       </c>
       <c r="AK8" s="82">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -8963,7 +8963,7 @@
       <c r="AN8" s="75"/>
       <c r="AO8" s="79">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>1276</v>
+        <v>255</v>
       </c>
       <c r="AP8" s="79">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -9046,7 +9046,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9108,7 +9108,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="53">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="B2" s="13">
         <v>7814</v>
@@ -9117,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="53">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F2" s="53"/>
       <c r="G2" s="53"/>
